--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2833026.830099756</v>
+        <v>2830769.808190675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968758</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>112.6867091553449</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>192.5627265154902</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>184.6634064364112</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599758</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>113.5103646250812</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>137.5449733400027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9110887090653</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,13 +1819,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>70.09171223062421</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>138.217877621569</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179178422</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>35.19725738465552</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744749</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>43.54171107304259</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>148.5873298926976</v>
       </c>
     </row>
     <row r="26">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0598196324652</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.9321526700473</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>114.4746605491564</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>49.28245334133462</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>147.9212967840868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>91.52974624397891</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3244,16 +3244,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.4425172951287</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935316</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298066</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581638</v>
+        <v>145.3777073581635</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706225</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164162</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>188.7127700430362</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>218.4926939877635</v>
       </c>
       <c r="U37" t="n">
-        <v>223.8472280467484</v>
+        <v>285.1555829172071</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>251.0813880354223</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481856</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>182.4559584878821</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -3670,7 +3670,7 @@
         <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433909</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3904,10 +3904,10 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2583.32413227545</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2364.689465247513</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2364.689465247513</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2364.689465247513</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.920809977398</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.455051716319</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,22 +4437,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>533.621179645333</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>533.621179645333</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.621179645333</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.511531185079</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1395.511531185079</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1037.245832578329</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>651.4575799800843</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>240.4716751904768</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1540.921096014691</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551629</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,16 +5148,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.3871648742119</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>860.1692949157593</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X13" t="n">
-        <v>632.179744017742</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y13" t="n">
-        <v>411.3871648742119</v>
+        <v>391.8664332433626</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,34 +5367,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>623.0432015923083</v>
+        <v>389.6913148129295</v>
       </c>
       <c r="C16" t="n">
-        <v>454.1070186644014</v>
+        <v>389.6913148129295</v>
       </c>
       <c r="D16" t="n">
-        <v>303.9903792520656</v>
+        <v>389.6913148129295</v>
       </c>
       <c r="E16" t="n">
-        <v>156.0772856696725</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>156.0772856696725</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>156.0772856696725</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.890966501056</v>
+        <v>909.2731541783398</v>
       </c>
       <c r="W16" t="n">
-        <v>1253.473796464095</v>
+        <v>838.473444854477</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.484245566078</v>
+        <v>610.4838939564596</v>
       </c>
       <c r="Y16" t="n">
-        <v>804.691666422548</v>
+        <v>389.6913148129295</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5516,25 +5516,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.67628410419</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5604,16 +5604,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>393.5907674431231</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>393.5907674431231</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V19" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W19" t="n">
-        <v>893.6944659454626</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X19" t="n">
-        <v>665.7049150474453</v>
+        <v>614.3833465866533</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.9123359039152</v>
+        <v>393.5907674431231</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232731</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.070220408989</v>
@@ -5829,13 +5829,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>672.6864166439464</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>522.5697772316104</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>374.6566836492171</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>374.6566836492171</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.962769867859</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437385</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201815</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221641</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>841.6225995718532</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>867.5397632725214</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6066,10 +6066,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838518</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X25" t="n">
-        <v>665.7049150474452</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.9123359039151</v>
+        <v>241.7782212305367</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>392.8404695303067</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>223.9042866023997</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>223.9042866023997</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>223.9042866023997</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927027</v>
@@ -6412,22 +6412,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437385</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718542</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738368</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>392.8404695303067</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6473,16 +6473,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6491,22 +6491,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>242.4509819463048</v>
+        <v>580.1131475839755</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,10 +6619,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1816.732752961893</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1594.966137531419</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1305.863270657063</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1051.178782451176</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>761.7616124142153</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433621</v>
+        <v>761.7616124142153</v>
       </c>
       <c r="Y31" t="n">
-        <v>242.4509819463048</v>
+        <v>761.7616124142153</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467752</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.11783460013</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O32" t="n">
-        <v>3517.878731871643</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>653.7478932037366</v>
+      </c>
+      <c r="C34" t="n">
+        <v>653.7478932037366</v>
+      </c>
+      <c r="D34" t="n">
+        <v>503.6312537914008</v>
+      </c>
+      <c r="E34" t="n">
+        <v>355.7181602090077</v>
+      </c>
+      <c r="F34" t="n">
+        <v>263.2638710736755</v>
+      </c>
+      <c r="G34" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C34" t="n">
+      <c r="H34" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="D34" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="E34" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="F34" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="G34" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="H34" t="n">
-        <v>95.56103444839439</v>
-      </c>
       <c r="I34" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838522</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858348</v>
+        <v>874.5404723472667</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>653.7478932037366</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>338.6659561449566</v>
+        <v>558.092830467175</v>
       </c>
       <c r="C37" t="n">
-        <v>338.6659561449566</v>
+        <v>558.092830467175</v>
       </c>
       <c r="D37" t="n">
-        <v>338.6659561449566</v>
+        <v>409.0431155885824</v>
       </c>
       <c r="E37" t="n">
-        <v>191.8197870963063</v>
+        <v>262.1969465399324</v>
       </c>
       <c r="F37" t="n">
-        <v>191.8197870963063</v>
+        <v>262.1969465399324</v>
       </c>
       <c r="G37" t="n">
-        <v>191.8197870963063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.8197870963063</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308513</v>
+        <v>141.7293596308516</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152491</v>
+        <v>346.7622353152496</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992666</v>
+        <v>664.3677264992673</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834338</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.05301910084</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280148</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640717</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452713</v>
+        <v>1464.626824743986</v>
       </c>
       <c r="U37" t="n">
-        <v>1327.282046294381</v>
+        <v>1176.590882403373</v>
       </c>
       <c r="V37" t="n">
-        <v>1073.664482622236</v>
+        <v>922.9733187312293</v>
       </c>
       <c r="W37" t="n">
-        <v>785.3142371190185</v>
+        <v>922.9733187312293</v>
       </c>
       <c r="X37" t="n">
-        <v>558.3916107547439</v>
+        <v>738.6743707636715</v>
       </c>
       <c r="Y37" t="n">
-        <v>338.6659561449566</v>
+        <v>738.6743707636715</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,22 +7172,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>301.7164587107663</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>956.4397908460658</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1407.474004094474</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>1941.005908766399</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7199,19 +7199,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.070220408989</v>
@@ -7251,19 +7251,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215047</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416711</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774087</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819755</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036711</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353395</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7436,25 +7436,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,64 +7464,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7597,10 +7597,10 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="44">
@@ -7640,31 +7640,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7725,19 +7725,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7758,10 +7758,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
         <v>1554.419908487875</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,13 +7804,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7819,37 +7819,37 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>353.7642348290873</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>297.8289162490814</v>
+        <v>96.13798426930805</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>19.79750571619275</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>82.70159106555764</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>315.1679217109319</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>294.8707872801648</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106152</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476831</v>
+        <v>89.52456338962088</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>17.45080131651167</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>344.7025836476849</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>5.284192235662204</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476831</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>32.92359802148793</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>148.9780249965883</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H16" t="n">
-        <v>84.84392620525549</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>216.4312861059668</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>81.33107165460021</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>220.2917442098587</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>130.8285508743728</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696693</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>182.1679443159946</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>69.99732345939717</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>18.361228390466</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.0742887270128</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>140.4865719901073</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.66335656800797</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>53.89130177895234</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.14213605696605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102225</v>
+        <v>166.1905658102221</v>
       </c>
       <c r="D37" t="n">
-        <v>147.559217729807</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345259</v>
+        <v>144.3647927345255</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706229</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>143.6987596259151</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143241</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164195</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25366,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.30835487045908</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.4667430481853</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>42.19744161274934</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636891</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747779</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772385.1224153979</v>
+        <v>772385.1224153981</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914263</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="I2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="J2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="H2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="I2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="J2" t="n">
-        <v>635330.859019173</v>
-      </c>
       <c r="K2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="M2" t="n">
-        <v>635814.3528639047</v>
+        <v>635814.3528639062</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914273</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696694</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414944</v>
+        <v>36735.10506414947</v>
       </c>
       <c r="O3" t="n">
         <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918994</v>
@@ -26445,19 +26445,19 @@
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.0529481145</v>
+        <v>18496.05294811465</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26488,7 +26488,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,10 +26497,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955464</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,43 +26522,43 @@
         <v>-199342.2282436551</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708889</v>
+        <v>390625.6509708893</v>
       </c>
       <c r="D6" t="n">
-        <v>390625.650970889</v>
+        <v>390625.6509708891</v>
       </c>
       <c r="E6" t="n">
-        <v>-206578.5655471374</v>
+        <v>-206645.7610373631</v>
       </c>
       <c r="F6" t="n">
-        <v>520798.8484462692</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="G6" t="n">
-        <v>520798.8484462693</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="H6" t="n">
-        <v>520798.8484462692</v>
+        <v>520731.6529560436</v>
       </c>
       <c r="I6" t="n">
-        <v>520798.848446269</v>
+        <v>520731.6529560431</v>
       </c>
       <c r="J6" t="n">
-        <v>344375.6292536764</v>
+        <v>344308.4337634505</v>
       </c>
       <c r="K6" t="n">
-        <v>520798.8484462693</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="L6" t="n">
-        <v>520798.8484462691</v>
+        <v>520731.6529560436</v>
       </c>
       <c r="M6" t="n">
-        <v>390358.6642665663</v>
+        <v>390292.9796946066</v>
       </c>
       <c r="N6" t="n">
-        <v>486159.9865157664</v>
+        <v>486159.9865157668</v>
       </c>
       <c r="O6" t="n">
-        <v>522895.091579916</v>
+        <v>522895.0915799155</v>
       </c>
       <c r="P6" t="n">
         <v>522895.0915799155</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26768,7 +26768,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018719</v>
+        <v>45.91888133018684</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>61.72900365362662</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>93.96027182110078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>229.1207635843838</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874015</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110317</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.377319120776078e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.446504991505769e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.377319120776078e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.523608934806495e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.523608934806495e-14</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405368</v>
+        <v>1.056255288405719</v>
       </c>
     </row>
     <row r="38">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>906.0660702419985</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
@@ -35811,19 +35811,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>836.750032079308</v>
+        <v>635.0591000995346</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>558.7186215464193</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>419.8928776209581</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>867.4697571238434</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306626</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36768,7 +36768,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
         <v>78.39423853789366</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>693.6327734995367</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>654.7059126660156</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359025</v>
+        <v>597.5775642778399</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147162</v>
+        <v>46.63467190147192</v>
       </c>
       <c r="K37" t="n">
-        <v>207.103914832725</v>
+        <v>207.1039148327252</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586038</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818895</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559455</v>
+        <v>345.9132014559457</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110455</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335158</v>
+        <v>236.0133264335161</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629905</v>
+        <v>79.45049382629935</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>208.2378022852242</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265651</v>
@@ -37552,13 +37552,13 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>897.0044190605962</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37786,16 +37786,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>404.0461784550341</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38175,19 +38175,19 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
